--- a/kanap/test.xlsx
+++ b/kanap/test.xlsx
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -291,9 +291,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -306,7 +304,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -322,86 +322,13 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -456,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,49 +400,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,22 +647,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
     <col min="4" max="4" width="57.85546875" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24">
+    <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -765,34 +675,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="72">
-      <c r="A2" s="18">
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="72">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36">
-      <c r="A3" s="15">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -800,258 +710,160 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="36">
-      <c r="A4" s="15">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="36">
-      <c r="A5" s="14">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="15">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72">
-      <c r="A7" s="15">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36">
-      <c r="A8" s="14">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="54">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="36">
-      <c r="A10" s="15">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="54">
-      <c r="A11" s="14">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="36">
-      <c r="A12" s="15">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="18">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="18">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="18">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="18">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="18">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="18">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="18">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="18">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="18">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>